--- a/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/BRTipoidentifcador.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/BRTipoidentifcador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{423B21BC-E0B9-1D42-8A10-2922F02EF3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653A7A0-496C-0F45-98D8-CA05589CA6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="980" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{50647A2F-5CFF-3B42-B580-C3BE641A33DF}"/>
   </bookViews>
@@ -498,17 +498,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1016,67 +1022,67 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="5" t="s">
         <v>118</v>
       </c>
@@ -1117,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F11CABA-E3F8-F649-8A82-ED00DDF9C552}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,365 +1136,365 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="38" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>108</v>
       </c>
     </row>
